--- a/target/classes/universityInfo.xlsx
+++ b/target/classes/universityInfo.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Университеты" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
     <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +534,9 @@
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -548,8 +549,9 @@
       <c r="D2" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -562,8 +564,9 @@
       <c r="D3" s="3">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -576,8 +579,9 @@
       <c r="D4" s="3">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -590,8 +594,9 @@
       <c r="D5" s="3">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -604,8 +609,9 @@
       <c r="D6" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -619,7 +625,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -633,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -647,7 +653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -661,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -675,7 +681,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -700,7 +706,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
